--- a/biology/Botanique/Rhipsalis_crispata/Rhipsalis_crispata.xlsx
+++ b/biology/Botanique/Rhipsalis_crispata/Rhipsalis_crispata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhipsalis  crispata est le nom d'une espèce de plante épiphyte et succulente, endémique du Brésil, et appartenant à la famille des cactus et du genre Rhipsalis (qui comprend environ 60 espècess et de nombreuses sous-espèces) [1].
-Elle est menacée par la régression, dégradation ou disparition de son habitat (forêt tropicale humide) [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhipsalis  crispata est le nom d'une espèce de plante épiphyte et succulente, endémique du Brésil, et appartenant à la famille des cactus et du genre Rhipsalis (qui comprend environ 60 espècess et de nombreuses sous-espèces) .
+Elle est menacée par la régression, dégradation ou disparition de son habitat (forêt tropicale humide) .
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre vient d'un mot grec signifiant souple ou osier, en référence à l'apparence des plantes.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine, aire de répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du Brésil, où elle vit dans des forêts subtropicales ou tropicales humides
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges, crassulentes, sont aplaties, rubanées. Les fleurs (blanches) et fruits apparaissent les bordures de ces tiges.
 </t>
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Statut, menace</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale menace qui pèse sur l'espèce est le recul rapide de la forêt tropicale primaire (destruction et fragmentation des habitats, déforestation..)
 </t>
